--- a/Recycling/Met_rec_tech/metrec_tech_Min_target_Max.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Min_target_Max.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.23556695175049E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.501512684101171E-09</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0002918075318022617</v>
+      </c>
+      <c r="E7">
         <v>19.85989100745863</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.83265822859841E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.0002918075318022617</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>52.92447431653536</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>364.7273056453167</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>24.49681389482311</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>201760.5210675096</v>
+      </c>
+      <c r="E7">
         <v>1261387.358599257</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>46214.12938323138</v>
-      </c>
-      <c r="F7">
-        <v>201760.5210675096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3361461.693738242</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>332.8293825067928</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>22.35439824712913</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>189208.8089100012</v>
+      </c>
+      <c r="E7">
         <v>1260255.762467423</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>42172.38442977388</v>
-      </c>
-      <c r="F7">
-        <v>189208.8089100012</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3358446.111709447</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.730440071359178E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.833892917907781E-08</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.002989130578166512</v>
+      </c>
+      <c r="E7">
         <v>38.47905475005235</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.459705615067455E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.002989130578166512</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>102.5425438678831</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.806672362867806E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.885094136707637E-07</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.02632256633042986</v>
+      </c>
+      <c r="E7">
         <v>78.14091137523224</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0003556298574476586</v>
-      </c>
-      <c r="F7">
-        <v>0.02632256633042986</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>208.2371275651001</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.027690487895514E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.361893001961952E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.1663059673377174</v>
+      </c>
+      <c r="E7">
         <v>134.4374021239084</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.002569260625851749</v>
-      </c>
-      <c r="F7">
-        <v>0.1663059673377174</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>358.2612227436891</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0001361753794357285</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.146183670541966E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.9949436476446523</v>
+      </c>
+      <c r="E7">
         <v>252.4287805857896</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.01725460777585243</v>
-      </c>
-      <c r="F7">
-        <v>0.9949436476446523</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>672.6955606075369</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0007563644108116997</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.080101742187631E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5.00237484350919</v>
+      </c>
+      <c r="E7">
         <v>448.2917121946711</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.09583796497023335</v>
-      </c>
-      <c r="F7">
-        <v>5.00237484350919</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1194.649215318054</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.003068027918764699</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0002060632910857174</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>18.61897571427275</v>
+      </c>
+      <c r="E7">
         <v>646.6762012379611</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.3887458849243374</v>
-      </c>
-      <c r="F7">
-        <v>18.61897571427275</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1723.322549488288</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.01324559378394901</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0008896368350533209</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>74.59529054724169</v>
+      </c>
+      <c r="E7">
         <v>1077.655154487581</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.678332209885107</v>
-      </c>
-      <c r="F7">
-        <v>74.59529054724169</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2871.835123583507</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.05288090936770973</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.003551732418492225</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>278.7544733287496</v>
+      </c>
+      <c r="E7">
         <v>1770.633865480805</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.700472242127153</v>
-      </c>
-      <c r="F7">
-        <v>278.7544733287496</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4718.548883396828</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1974834677866346</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0132639253568198</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>978.7626368001029</v>
+      </c>
+      <c r="E7">
         <v>2870.980060704132</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25.02287706480615</v>
-      </c>
-      <c r="F7">
-        <v>978.7626368001029</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7650.853190934237</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.6129426175103273</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.04116813026321062</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2844.624921679365</v>
+      </c>
+      <c r="E7">
         <v>4072.68373048705</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77.66517338207004</v>
-      </c>
-      <c r="F7">
-        <v>2844.624921679365</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>10853.26427081512</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.858948141095507</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.1248557646978816</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>7892.810760013766</v>
+      </c>
+      <c r="E7">
         <v>6013.402449052555</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>235.5449361196144</v>
-      </c>
-      <c r="F7">
-        <v>7892.810760013766</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>16025.07100116249</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.001510553629878</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.3359251455234115</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>18260.16552812645</v>
+      </c>
+      <c r="E7">
         <v>8735.18182112988</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>633.7349912096345</v>
-      </c>
-      <c r="F7">
-        <v>18260.16552812645</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>23278.32039808429</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.235509227291566</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.6203005567806138</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>26113.31335185525</v>
+      </c>
+      <c r="E7">
         <v>10600.32552415974</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1170.219535921275</v>
-      </c>
-      <c r="F7">
-        <v>26113.31335185525</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>28248.72783740906</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.33436827168707</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.895599350255959</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>29342.94472743226</v>
+      </c>
+      <c r="E7">
         <v>14442.00303015259</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1689.580711433401</v>
-      </c>
-      <c r="F7">
-        <v>29342.94472743226</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>38486.38535637386</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.73172749430214</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.7207936645509325</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>27671.55337161953</v>
+      </c>
+      <c r="E7">
         <v>18679.39443791283</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1359.803434650325</v>
-      </c>
-      <c r="F7">
-        <v>27671.55337161953</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>49778.57787872408</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.754718938236534</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.3865141892723672</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>28304.99391314046</v>
+      </c>
+      <c r="E7">
         <v>23581.43748373293</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>729.1730601448872</v>
-      </c>
-      <c r="F7">
-        <v>28304.99391314046</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>62841.99555707999</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.033632479449063</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.4052473441693952</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>30031.32236649891</v>
+      </c>
+      <c r="E7">
         <v>29090.26333853585</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>764.5138374347176</v>
-      </c>
-      <c r="F7">
-        <v>30031.32236649891</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>77522.42418366647</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.99131557190352</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.671064091832444</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>31889.68857947679</v>
+      </c>
+      <c r="E7">
         <v>35106.48334381856</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1265.98678903868</v>
-      </c>
-      <c r="F7">
-        <v>31889.68857947679</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>93555.00366925528</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.1372070859571</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.9495218088059607</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>33121.91589355267</v>
+      </c>
+      <c r="E7">
         <v>41501.09360657035</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1791.307388493977</v>
-      </c>
-      <c r="F7">
-        <v>33121.91589355267</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>110595.9525087106</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.0003525808253633283</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0009395899921825479</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>20.04015448862867</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3437,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.345991724043939</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>34941.52698757352</v>
+      </c>
+      <c r="E7">
         <v>48150.48337250657</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2539.262287365083</v>
-      </c>
-      <c r="F7">
-        <v>34941.52698757352</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>128315.8613317629</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>26.58428028964375</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3552,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.785526218364669</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37427.25411368956</v>
+      </c>
+      <c r="E7">
         <v>54985.51107468767</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3368.460079214417</v>
-      </c>
-      <c r="F7">
-        <v>37427.25411368956</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>146530.475296212</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>30.44027144682797</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.044512853847025</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36906.44104844668</v>
+      </c>
+      <c r="E7">
         <v>62051.78497507393</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3857.047776051137</v>
-      </c>
-      <c r="F7">
-        <v>36906.44104844668</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>165361.3355166505</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>38.79011164739139</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.605327682566283</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36889.19457644587</v>
+      </c>
+      <c r="E7">
         <v>69580.33074009149</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4915.045324864766</v>
-      </c>
-      <c r="F7">
-        <v>36889.19457644587</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>185424.1005555871</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>63.91364783985745</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3897,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.29274340648028</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37517.05623979049</v>
+      </c>
+      <c r="E7">
         <v>78062.26840380207</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8098.416391938126</v>
-      </c>
-      <c r="F7">
-        <v>37517.05623979049</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>208027.5525014671</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>100.0068828913807</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4012,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>6.71693607929072</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37828.51418327849</v>
+      </c>
+      <c r="E7">
         <v>88315.15591415799</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>12671.74394025325</v>
-      </c>
-      <c r="F7">
-        <v>37828.51418327849</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>235350.3953865749</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>140.650505032761</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4127,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.446754308412082</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>39764.26319351936</v>
+      </c>
+      <c r="E7">
         <v>101524.8357840965</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17821.64520394284</v>
-      </c>
-      <c r="F7">
-        <v>39764.26319351936</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>270552.7720130957</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>171.5513911932052</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>11.52220422877984</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40898.50869015128</v>
+      </c>
+      <c r="E7">
         <v>119243.9001925152</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21737.05687993073</v>
-      </c>
-      <c r="F7">
-        <v>40898.50869015128</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>317772.1736122387</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>155.0664082627201</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4357,10 +4357,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.41499467068841</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>39932.11112556286</v>
+      </c>
+      <c r="E7">
         <v>143330.0757522999</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19648.26582360477</v>
-      </c>
-      <c r="F7">
-        <v>39932.11112556286</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>381959.2418755356</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>143.1225766519891</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.612790350829469</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>37455.12041056198</v>
+      </c>
+      <c r="E7">
         <v>175809.205224383</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18134.87823006214</v>
-      </c>
-      <c r="F7">
-        <v>37455.12041056198</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>468512.6299542074</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.01216427101931302</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0324164744357975</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>137.7940679193825</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4702,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.254902458315771</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36912.15694699272</v>
+      </c>
+      <c r="E7">
         <v>218659.329425278</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17459.70971874747</v>
-      </c>
-      <c r="F7">
-        <v>36912.15694699272</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>582703.6039569806</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>124.3644837440406</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4817,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.352907956845311</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>43505.60588420551</v>
+      </c>
+      <c r="E7">
         <v>273549.6882415251</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15758.06432221171</v>
-      </c>
-      <c r="F7">
-        <v>43505.60588420551</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>728980.5087146576</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>109.7554875836556</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4932,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>7.371698558503316</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>58420.24669793575</v>
+      </c>
+      <c r="E7">
         <v>341568.8212480194</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>13906.97714484606</v>
-      </c>
-      <c r="F7">
-        <v>58420.24669793575</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>910244.1851609804</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>105.1532643281263</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5047,10 +5047,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>7.062591439710395</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>86349.59197301272</v>
+      </c>
+      <c r="E7">
         <v>422972.0365140986</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>13323.83533536394</v>
-      </c>
-      <c r="F7">
-        <v>86349.59197301272</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1127175.001851515</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>148.7297323896576</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.989393496409505</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>127613.181060661</v>
+      </c>
+      <c r="E7">
         <v>516973.8278609047</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18845.35374621266</v>
-      </c>
-      <c r="F7">
-        <v>127613.181060661</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1377679.669272597</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>220.0475388809186</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5277,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.77943527820682</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>175324.2995123976</v>
+      </c>
+      <c r="E7">
         <v>621605.9222217505</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27881.94159006474</v>
-      </c>
-      <c r="F7">
-        <v>175324.2995123976</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1656512.951318615</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>298.0355217161525</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.01747770600692</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>229585.4768370133</v>
+      </c>
+      <c r="E7">
         <v>733665.1388953439</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37763.69892849012</v>
-      </c>
-      <c r="F7">
-        <v>229585.4768370133</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1955138.715807721</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>422.5951415878511</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5507,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>28.3834919297245</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>317540.5631286554</v>
+      </c>
+      <c r="E7">
         <v>848776.7948167064</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>53546.48869930782</v>
-      </c>
-      <c r="F7">
-        <v>317540.5631286554</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2261898.902711869</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>563.6569723748873</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>37.85787282462098</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>415733.3896487782</v>
+      </c>
+      <c r="E7">
         <v>961600.0078660164</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>71420.25246232892</v>
-      </c>
-      <c r="F7">
-        <v>415733.3896487782</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2562560.635401877</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>616.4509632563778</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>41.40376738576616</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>451180.4700621936</v>
+      </c>
+      <c r="E7">
         <v>1066192.666627985</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>78109.71137448118</v>
-      </c>
-      <c r="F7">
-        <v>451180.4700621936</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2841288.825816769</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.09443816698221945</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.2516675615729238</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>619.9359250582282</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5967,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>41.63783393183802</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>451481.5469561804</v>
+      </c>
+      <c r="E7">
         <v>1156528.98579668</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>78551.28641729671</v>
-      </c>
-      <c r="F7">
-        <v>451481.5469561804</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3082025.403973136</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>616.4185774140319</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6082,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>41.40159219915278</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>446072.1532844109</v>
+      </c>
+      <c r="E7">
         <v>1227124.211945481</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>78105.60780591037</v>
-      </c>
-      <c r="F7">
-        <v>446072.1532844109</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3270154.091677364</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>604.5682068519094</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6197,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.60566516612908</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>433325.3986612544</v>
+      </c>
+      <c r="E7">
         <v>1273681.095766389</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76604.06254203658</v>
-      </c>
-      <c r="F7">
-        <v>433325.3986612544</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3394223.181538541</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>592.0522032248974</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6312,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.7650310627532</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>416877.5218740663</v>
+      </c>
+      <c r="E7">
         <v>1293647.67618495</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75018.17576573305</v>
-      </c>
-      <c r="F7">
-        <v>416877.5218740663</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3447431.971665048</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>594.0624770506006</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6427,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.90005057739786</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>405215.2363132768</v>
+      </c>
+      <c r="E7">
         <v>1286579.390868291</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75272.89498537687</v>
-      </c>
-      <c r="F7">
-        <v>405215.2363132768</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3428595.751236498</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>593.1269642868657</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6542,10 +6542,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.83721710780365</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>385860.2718130947</v>
+      </c>
+      <c r="E7">
         <v>1254234.499013215</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75154.35736224383</v>
-      </c>
-      <c r="F7">
-        <v>385860.2718130947</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3342400.091974713</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>551.1037948626333</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6657,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>37.0147419469855</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>336211.088015347</v>
+      </c>
+      <c r="E7">
         <v>1200390.948357697</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>69829.65543067663</v>
-      </c>
-      <c r="F7">
-        <v>336211.088015347</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3198912.81841874</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>432.6189564487016</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.05673882778156</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>238219.4360967303</v>
+      </c>
+      <c r="E7">
         <v>1130434.417600723</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>54816.5934315907</v>
-      </c>
-      <c r="F7">
-        <v>238219.4360967303</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3012486.185264968</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>281.1968193715862</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6887,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.88651067617258</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>127789.0326066465</v>
+      </c>
+      <c r="E7">
         <v>1050808.115620686</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>35630.08853861089</v>
-      </c>
-      <c r="F7">
-        <v>127789.0326066465</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2800290.651438501</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>215.9139452247589</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7002,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.50180354363568</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>87307.87525864053</v>
+      </c>
+      <c r="E7">
         <v>968418.4892910681</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27358.17923641953</v>
-      </c>
-      <c r="F7">
-        <v>87307.87525864053</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2580731.155316734</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7101,10 +7101,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.114526255265581E-15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7117,10 +7117,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.450100292551245E-16</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7130,13 +7130,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.205813426717631E-10</v>
+      </c>
+      <c r="E7">
         <v>0.3879221422237807</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.028181220435276E-12</v>
-      </c>
-      <c r="F7">
-        <v>2.205813426717631E-10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.033770801925718</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>199.7403351191478</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7232,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>13.41550725972138</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>84758.02803532656</v>
+      </c>
+      <c r="E7">
         <v>890058.6096346087</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25308.84183160916</v>
-      </c>
-      <c r="F7">
-        <v>84758.02803532656</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2371910.500824342</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>181.6065802034303</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7347,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>12.197558363357</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>84642.82410122419</v>
+      </c>
+      <c r="E7">
         <v>821873.1062406164</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>23011.13699046482</v>
-      </c>
-      <c r="F7">
-        <v>84642.82410122419</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2190203.465182499</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>156.9059399804679</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7462,10 +7462,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.53854633640085</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>86104.62725807216</v>
+      </c>
+      <c r="E7">
         <v>768871.9713918812</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19881.35052961038</v>
-      </c>
-      <c r="F7">
-        <v>86104.62725807216</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2048961.139180024</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>141.0315963617389</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7577,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.472350207645311</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>96282.69274760765</v>
+      </c>
+      <c r="E7">
         <v>734516.9465965641</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17869.93279774681</v>
-      </c>
-      <c r="F7">
-        <v>96282.69274760765</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1957408.691750134</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>162.0770363912359</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.88586167157337</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>127434.927698337</v>
+      </c>
+      <c r="E7">
         <v>720438.5512372173</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20536.57352739929</v>
-      </c>
-      <c r="F7">
-        <v>127434.927698337</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1919891.281743505</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>219.6312957466637</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7807,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>14.75147841718486</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>174485.7857367418</v>
+      </c>
+      <c r="E7">
         <v>726359.106881813</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27829.19995607245</v>
-      </c>
-      <c r="F7">
-        <v>174485.7857367418</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1935668.925993131</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>300.583701375665</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7922,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.18862552500338</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>231787.4441924849</v>
+      </c>
+      <c r="E7">
         <v>750269.4974024921</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38086.575506837</v>
-      </c>
-      <c r="F7">
-        <v>231787.4441924849</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1999387.546026582</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>397.4326604355998</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8037,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>26.69346047779334</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>299237.6554589414</v>
+      </c>
+      <c r="E7">
         <v>788837.3809891596</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>50358.18296630052</v>
-      </c>
-      <c r="F7">
-        <v>299237.6554589414</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2102166.809193692</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>499.0839586523491</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>33.52084328143907</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>369965.1070638698</v>
+      </c>
+      <c r="E7">
         <v>837949.2205808506</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>63238.28866458529</v>
-      </c>
-      <c r="F7">
-        <v>369965.1070638698</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2233044.581490232</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>577.3500214619258</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8267,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>38.77756287783586</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>423529.4887004517</v>
+      </c>
+      <c r="E7">
         <v>893252.4044374042</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>73155.28116011094</v>
-      </c>
-      <c r="F7">
-        <v>423529.4887004517</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2380421.620595813</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8366,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.671919936661508E-13</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8382,10 +8382,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.824472297826462E-14</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8395,13 +8395,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.999106996681615E-08</v>
+      </c>
+      <c r="E7">
         <v>1.239016319969855</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.098807859326078E-10</v>
-      </c>
-      <c r="F7">
-        <v>1.999106996681615E-08</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3.301845280993007</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>612.0338910812494</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8497,10 +8497,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>41.1070958907634</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>445602.3158574225</v>
+      </c>
+      <c r="E7">
         <v>950587.7046981008</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77550.0298210661</v>
-      </c>
-      <c r="F7">
-        <v>445602.3158574225</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2533214.031437264</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>616.50075530621</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8612,10 +8612,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>41.40711165574348</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>445381.8353701676</v>
+      </c>
+      <c r="E7">
         <v>1006268.611641255</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>78116.02046129089</v>
-      </c>
-      <c r="F7">
-        <v>445381.8353701676</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2681597.661958077</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>610.131902339304</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8727,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.97934931538965</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>435849.4571452438</v>
+      </c>
+      <c r="E7">
         <v>1057229.076466183</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77309.03126558315</v>
-      </c>
-      <c r="F7">
-        <v>435849.4571452438</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2817401.821747913</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>600.5186345437692</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8842,10 +8842,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.33367670337708</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>421339.2655106824</v>
+      </c>
+      <c r="E7">
         <v>1101090.658826048</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76090.9464256986</v>
-      </c>
-      <c r="F7">
-        <v>421339.2655106824</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2934288.222998324</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>589.8599955590309</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8957,10 +8957,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.61779200941575</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>402457.5108447207</v>
+      </c>
+      <c r="E7">
         <v>1136189.981394402</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74740.40394240874</v>
-      </c>
-      <c r="F7">
-        <v>402457.5108447207</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3027824.143970851</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>573.2896889594452</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9072,10 +9072,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>38.50485170945107</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>375912.9852666363</v>
+      </c>
+      <c r="E7">
         <v>1161580.666456602</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>72640.8016333407</v>
-      </c>
-      <c r="F7">
-        <v>375912.9852666363</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3095487.589804919</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>536.7729658143684</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9187,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>36.05221556982615</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>334041.776597033</v>
+      </c>
+      <c r="E7">
         <v>1177006.551534457</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>68013.8144515273</v>
-      </c>
-      <c r="F7">
-        <v>334041.776597033</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3136595.915037225</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>471.9956502417888</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9302,10 +9302,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>31.70146414643026</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>274989.7613666917</v>
+      </c>
+      <c r="E7">
         <v>1182842.8894361</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>59805.9638282433</v>
-      </c>
-      <c r="F7">
-        <v>274989.7613666917</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3152149.128056475</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>394.730611708604</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9417,10 +9417,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>26.51197808320585</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>213630.9907052807</v>
+      </c>
+      <c r="E7">
         <v>1180011.503185105</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>50015.80983564544</v>
-      </c>
-      <c r="F7">
-        <v>213630.9907052807</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3144603.788111522</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>332.9771673366284</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9532,10 +9532,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>22.36432417649313</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>171064.4649636879</v>
+      </c>
+      <c r="E7">
         <v>1169882.262968189</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>42191.11005612865</v>
-      </c>
-      <c r="F7">
-        <v>171064.4649636879</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3117610.451969604</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.465996410874596E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.999574784744328E-12</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>8.631713232770966E-07</v>
+      </c>
+      <c r="E7">
         <v>3.673837599642984</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.658806806143383E-09</v>
-      </c>
-      <c r="F7">
-        <v>8.631713232770966E-07</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>9.790382213699171</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>292.4306455977194</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9762,10 +9762,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>19.64102767045539</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>149986.8533303731</v>
+      </c>
+      <c r="E7">
         <v>1154171.600659684</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37053.51225997088</v>
-      </c>
-      <c r="F7">
-        <v>149986.8533303731</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3075743.226035185</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>268.2356655447413</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.01597817629128</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>144875.3221575754</v>
+      </c>
+      <c r="E7">
         <v>1134841.711266813</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33987.79735108936</v>
-      </c>
-      <c r="F7">
-        <v>144875.3221575754</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3024231.149038877</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>250.4074254789796</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9992,10 +9992,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.81854910475392</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>147683.3816462332</v>
+      </c>
+      <c r="E7">
         <v>1113996.237314665</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31728.8039049676</v>
-      </c>
-      <c r="F7">
-        <v>147683.3816462332</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2968680.202138811</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>241.0526774376762</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10107,10 +10107,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.19023990428067</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>158267.6327481378</v>
+      </c>
+      <c r="E7">
         <v>1093764.147647565</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30543.47577176568</v>
-      </c>
-      <c r="F7">
-        <v>158267.6327481378</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2914763.858410937</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>254.0743598378305</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.0648377899248</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>182788.5256706896</v>
+      </c>
+      <c r="E7">
         <v>1076165.559236245</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32193.43645722446</v>
-      </c>
-      <c r="F7">
-        <v>182788.5256706896</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2867865.512391193</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>296.4962877437328</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10337,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>19.91409545965648</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>222697.8540536023</v>
+      </c>
+      <c r="E7">
         <v>1062961.762768912</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37568.66456486712</v>
-      </c>
-      <c r="F7">
-        <v>222697.8540536023</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2832678.814400067</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>363.6753765179165</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10452,10 +10452,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>24.42616135067407</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>274128.4232841653</v>
+      </c>
+      <c r="E7">
         <v>1055504.294267083</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>46080.84079188327</v>
-      </c>
-      <c r="F7">
-        <v>274128.4232841653</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2812805.462625718</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>444.8470939720031</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10567,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.87803847974654</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>331746.5055712961</v>
+      </c>
+      <c r="E7">
         <v>1054608.492642119</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>56366.00506288586</v>
-      </c>
-      <c r="F7">
-        <v>331746.5055712961</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2810418.247606496</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>528.5148115919537</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>35.49755880579992</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>389758.5373204852</v>
+      </c>
+      <c r="E7">
         <v>1060479.676289586</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>66967.4343154799</v>
-      </c>
-      <c r="F7">
-        <v>389758.5373204852</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2826064.320791962</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>602.0010278201569</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10797,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>40.43324125927552</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>439940.524274963</v>
+      </c>
+      <c r="E7">
         <v>1072711.641616774</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>76278.778577587</v>
-      </c>
-      <c r="F7">
-        <v>439940.524274963</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2858661.193280152</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.311761074726565E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10912,10 +10912,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.810408879366674E-11</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.078147250660614E-05</v>
+      </c>
+      <c r="E7">
         <v>9.537392029210757</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.66211564335829E-07</v>
-      </c>
-      <c r="F7">
-        <v>2.078147250660614E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>25.41612435370991</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>650.7174190417439</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11027,10 +11027,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>43.70526490793304</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>471842.1976349708</v>
+      </c>
+      <c r="E7">
         <v>1090360.247338334</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82451.5700635854</v>
-      </c>
-      <c r="F7">
-        <v>471842.1976349708</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2905692.83005412</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>670.4742305233816</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>45.03222597317183</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>482187.0844520162</v>
+      </c>
+      <c r="E7">
         <v>1112076.894194415</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>84954.93032172961</v>
-      </c>
-      <c r="F7">
-        <v>482187.0844520162</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2963565.359079796</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>669.6557070253401</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11257,10 +11257,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.97725005694699</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>476411.5942005079</v>
+      </c>
+      <c r="E7">
         <v>1136274.877358522</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>84851.2162584933</v>
-      </c>
-      <c r="F7">
-        <v>476411.5942005079</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3028050.382587716</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>659.0292265938075</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.2635252837835</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>461480.1159957407</v>
+      </c>
+      <c r="E7">
         <v>1161299.789985028</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83504.74854425865</v>
-      </c>
-      <c r="F7">
-        <v>461480.1159957407</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3094739.084206355</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>644.2876332107787</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11487,10 +11487,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>43.27341002773414</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>440943.607441431</v>
+      </c>
+      <c r="E7">
         <v>1185581.465054374</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>81636.8601427777</v>
-      </c>
-      <c r="F7">
-        <v>440943.607441431</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3159447.13764368</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>622.7472621296373</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11602,10 +11602,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>41.82665664943541</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>413182.3353204758</v>
+      </c>
+      <c r="E7">
         <v>1207754.496628121</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>78907.50733398434</v>
-      </c>
-      <c r="F7">
-        <v>413182.3353204758</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3218535.882874141</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>588.1110375017258</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11717,10 +11717,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.50032369986911</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>375216.4127344316</v>
+      </c>
+      <c r="E7">
         <v>1226742.975913181</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74518.79570881859</v>
-      </c>
-      <c r="F7">
-        <v>375216.4127344316</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3269138.138639533</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>536.4858742748276</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11832,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>36.03293314181472</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>326873.5930963583</v>
+      </c>
+      <c r="E7">
         <v>1241810.18139206</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>67977.43745055202</v>
-      </c>
-      <c r="F7">
-        <v>326873.5930963583</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3309290.621303684</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>473.1053226148449</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11947,10 +11947,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>31.77599500054025</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>274643.6606562313</v>
+      </c>
+      <c r="E7">
         <v>1252576.348168058</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>59946.568992232</v>
-      </c>
-      <c r="F7">
-        <v>274643.6606562313</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3337981.298246969</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>412.1518765806999</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12062,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>27.68207277252194</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>230299.4783957961</v>
+      </c>
+      <c r="E7">
         <v>1259008.552979524</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>52223.23597664713</v>
-      </c>
-      <c r="F7">
-        <v>230299.4783957961</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3355122.432516804</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
